--- a/config_12.15/shoping_config_vivo.xlsx
+++ b/config_12.15/shoping_config_vivo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4004" uniqueCount="1847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="1870">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8160,6 +8160,98 @@
   </si>
   <si>
     <t>首充加赠106808000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星高照</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"180万金币","10万小游戏币","水滴*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800000,100000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>六六大顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"480万金币","15万小游戏币","水滴*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4800000,150000,8,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>五福临门</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"980万金币","30万小游戏币","阳光*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_2",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9800000,300000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1980万金币","60万小游戏币","阳光*8",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阳开泰</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2980万金币","90万小游戏币","阳光*12",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>29800000,900000,12,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二龙腾飞</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>一帆风顺</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"9980万金币","300万小游戏币","铁锹*5",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>99800000,3000000,5,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -11041,11 +11133,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN492"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H399" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H467" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="H498" sqref="H498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -37313,7 +37405,7 @@
         <v>1</v>
       </c>
       <c r="F414" s="69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G414" s="69" t="s">
         <v>1397</v>
@@ -41997,26 +42089,460 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H486" s="19"/>
-    </row>
-    <row r="487" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H487" s="19"/>
-    </row>
-    <row r="488" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H488" s="19"/>
-    </row>
-    <row r="489" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H489" s="19"/>
-    </row>
-    <row r="490" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H490" s="19"/>
-    </row>
-    <row r="491" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H491" s="19"/>
-    </row>
-    <row r="492" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="H492" s="19"/>
+    <row r="486" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A486" s="19">
+        <v>485</v>
+      </c>
+      <c r="B486" s="19">
+        <v>10402</v>
+      </c>
+      <c r="F486" s="19">
+        <v>1</v>
+      </c>
+      <c r="G486" s="19" t="s">
+        <v>1847</v>
+      </c>
+      <c r="I486" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J486" s="19" t="s">
+        <v>1849</v>
+      </c>
+      <c r="L486" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M486" s="19">
+        <v>0</v>
+      </c>
+      <c r="N486" s="19">
+        <v>0</v>
+      </c>
+      <c r="O486" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P486" s="19">
+        <v>1800</v>
+      </c>
+      <c r="Q486" s="19" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R486" s="39" t="s">
+        <v>1851</v>
+      </c>
+      <c r="W486" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X486" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y486" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z486" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL486" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM486" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A487" s="19">
+        <v>486</v>
+      </c>
+      <c r="B487" s="19">
+        <v>10403</v>
+      </c>
+      <c r="F487" s="19">
+        <v>1</v>
+      </c>
+      <c r="G487" s="19" t="s">
+        <v>1852</v>
+      </c>
+      <c r="I487" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J487" s="19" t="s">
+        <v>1853</v>
+      </c>
+      <c r="L487" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M487" s="19">
+        <v>0</v>
+      </c>
+      <c r="N487" s="19">
+        <v>0</v>
+      </c>
+      <c r="O487" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P487" s="19">
+        <v>4800</v>
+      </c>
+      <c r="Q487" s="19" t="s">
+        <v>1850</v>
+      </c>
+      <c r="R487" s="39" t="s">
+        <v>1854</v>
+      </c>
+      <c r="W487" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X487" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y487" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z487" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL487" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM487" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A488" s="19">
+        <v>487</v>
+      </c>
+      <c r="B488" s="19">
+        <v>10404</v>
+      </c>
+      <c r="F488" s="19">
+        <v>1</v>
+      </c>
+      <c r="G488" s="19" t="s">
+        <v>1855</v>
+      </c>
+      <c r="I488" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J488" s="19" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L488" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M488" s="19">
+        <v>0</v>
+      </c>
+      <c r="N488" s="19">
+        <v>0</v>
+      </c>
+      <c r="O488" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P488" s="19">
+        <v>9800</v>
+      </c>
+      <c r="Q488" s="19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R488" s="39" t="s">
+        <v>1858</v>
+      </c>
+      <c r="W488" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X488" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y488" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z488" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL488" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM488" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A489" s="19">
+        <v>488</v>
+      </c>
+      <c r="B489" s="19">
+        <v>10405</v>
+      </c>
+      <c r="F489" s="19">
+        <v>1</v>
+      </c>
+      <c r="G489" s="19" t="s">
+        <v>1366</v>
+      </c>
+      <c r="I489" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J489" s="19" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L489" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M489" s="19">
+        <v>0</v>
+      </c>
+      <c r="N489" s="19">
+        <v>0</v>
+      </c>
+      <c r="O489" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P489" s="19">
+        <v>19800</v>
+      </c>
+      <c r="Q489" s="19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R489" s="39" t="s">
+        <v>1368</v>
+      </c>
+      <c r="W489" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X489" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y489" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z489" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL489" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM489" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A490" s="19">
+        <v>489</v>
+      </c>
+      <c r="B490" s="19">
+        <v>10406</v>
+      </c>
+      <c r="F490" s="19">
+        <v>1</v>
+      </c>
+      <c r="G490" s="19" t="s">
+        <v>1860</v>
+      </c>
+      <c r="I490" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J490" s="19" t="s">
+        <v>1861</v>
+      </c>
+      <c r="L490" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M490" s="19">
+        <v>0</v>
+      </c>
+      <c r="N490" s="19">
+        <v>0</v>
+      </c>
+      <c r="O490" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P490" s="19">
+        <v>29800</v>
+      </c>
+      <c r="Q490" s="19" t="s">
+        <v>1857</v>
+      </c>
+      <c r="R490" s="39" t="s">
+        <v>1862</v>
+      </c>
+      <c r="W490" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X490" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y490" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z490" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL490" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM490" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A491" s="19">
+        <v>490</v>
+      </c>
+      <c r="B491" s="19">
+        <v>10407</v>
+      </c>
+      <c r="F491" s="19">
+        <v>1</v>
+      </c>
+      <c r="G491" s="19" t="s">
+        <v>1863</v>
+      </c>
+      <c r="I491" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J491" s="19" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L491" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M491" s="19">
+        <v>0</v>
+      </c>
+      <c r="N491" s="19">
+        <v>0</v>
+      </c>
+      <c r="O491" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="P491" s="19">
+        <v>49800</v>
+      </c>
+      <c r="Q491" s="19" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R491" s="39" t="s">
+        <v>1377</v>
+      </c>
+      <c r="W491" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="X491" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y491" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z491" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL491" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM491" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:39" s="19" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A492" s="19">
+        <v>491</v>
+      </c>
+      <c r="B492" s="19">
+        <v>10408</v>
+      </c>
+      <c r="F492" s="19">
+        <v>1</v>
+      </c>
+      <c r="G492" s="19" t="s">
+        <v>1865</v>
+      </c>
+      <c r="I492" s="19" t="s">
+        <v>1848</v>
+      </c>
+      <c r="J492" s="19" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L492" s="19">
+        <v>-31</v>
+      </c>
+      <c r="M492" s="19">
+        <v>0</v>
+      </c>
+      <c r="N492" s="19">
+        <v>0</v>
+      </c>
+      <c r="O492" s="19" t="s">
+        <v>1867</v>
+      </c>
+      <c r="P492" s="19">
+        <v>99800</v>
+      </c>
+      <c r="Q492" s="19" t="s">
+        <v>1864</v>
+      </c>
+      <c r="R492" s="39" t="s">
+        <v>1868</v>
+      </c>
+      <c r="W492" s="19" t="s">
+        <v>1869</v>
+      </c>
+      <c r="X492" s="19">
+        <v>9999999</v>
+      </c>
+      <c r="Y492" s="34">
+        <v>1607990400</v>
+      </c>
+      <c r="Z492" s="34">
+        <v>1608566399</v>
+      </c>
+      <c r="AH492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AI492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AL492" s="19">
+        <v>1</v>
+      </c>
+      <c r="AM492" s="19">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -42982,7 +43508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q25"/>
     </sheetView>
   </sheetViews>
